--- a/data/Region_Estimation.xlsx
+++ b/data/Region_Estimation.xlsx
@@ -8,45 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VSCode\MCM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202C21AA-A3EE-4EF8-BFE8-CF984B7B0A6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51A019C-1BD4-40B3-869A-94D4D6B501E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="standard" sheetId="4" r:id="rId1"/>
+    <sheet name="pre" sheetId="2" r:id="rId2"/>
+    <sheet name="calculator" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>Region</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>China</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>India</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Income Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>substitutability</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,7 +55,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Populaiton</t>
+    <t>High-Income</t>
+  </si>
+  <si>
+    <t>High-Income</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Middle-Income</t>
+  </si>
+  <si>
+    <t>Middle-Income</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low-Income</t>
+  </si>
+  <si>
+    <t>Low-Income</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waste</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Income</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,107 +429,317 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E20CF8-A988-48F2-A512-C7FCE20FC932}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1.2675004445952596</v>
+      </c>
+      <c r="C2">
+        <v>1.3363062095621219</v>
+      </c>
+      <c r="D2">
+        <v>-1.2247448713915889</v>
+      </c>
+      <c r="E2">
+        <v>0.92582009977255142</v>
+      </c>
+      <c r="F2">
+        <v>1.2247448713915889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>-9.0535746042518447E-2</v>
+      </c>
+      <c r="C3">
+        <v>-0.2672612419124244</v>
+      </c>
+      <c r="D3">
+        <v>1.2247448713915889</v>
+      </c>
+      <c r="E3">
+        <v>0.46291004988627571</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>-1.1769646985527409</v>
+      </c>
+      <c r="C4">
+        <v>-1.0690449676496976</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>-1.3887301496588271</v>
+      </c>
+      <c r="F4">
+        <v>-1.2247448713915889</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF810B02-0871-44DC-AFFB-80A73AF943CF}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2">
+        <v>-10</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <f>AVERAGE(B2:B4)</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:F6" si="0">AVERAGE(C2:C4)</f>
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>-5</v>
-      </c>
-      <c r="F2">
+      <c r="F6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <f>_xlfn.STDEV.P(B2:B4)</f>
+        <v>3.6817870057290869</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:F7" si="1">_xlfn.STDEV.P(C2:C4)</f>
+        <v>3.7416573867739413</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>8.1649658092772608</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>4.3204937989385739</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>4.0824829046386304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
+      <c r="B9">
+        <f>(B2-B$6)/B$7</f>
+        <v>1.2675004445952596</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:F9" si="2">(C2-C$6)/C$7</f>
+        <v>1.3363062095621219</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>-1.2247448713915889</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>0.92582009977255142</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>1.2247448713915889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="G3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+      <c r="B10">
+        <f t="shared" ref="B10:F10" si="3">(B3-B$6)/B$7</f>
+        <v>-9.0535746042518447E-2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="3"/>
+        <v>-0.2672612419124244</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>1.2247448713915889</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>0.46291004988627571</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11:F11" si="4">(B4-B$6)/B$7</f>
+        <v>-1.1769646985527409</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="4"/>
+        <v>-1.0690449676496976</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="4"/>
+        <v>-1.3887301496588271</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>-1.2247448713915889</v>
       </c>
     </row>
   </sheetData>
@@ -496,4 +747,114 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3C6B19-F080-49E9-BEAD-B513247C93A2}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>145.22999999999999</v>
+      </c>
+      <c r="C2">
+        <v>22.549999999999997</v>
+      </c>
+      <c r="D2">
+        <f>(B2-B$5)/B$6</f>
+        <v>1.148680220095079</v>
+      </c>
+      <c r="E2">
+        <f>(C2-C$5)/C$6</f>
+        <v>0.74397952596516437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>108.14999999999999</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D4" si="0">(B3-B$5)/B$6</f>
+        <v>0.14008295367013138</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E4" si="1">(C3-C$5)/C$6</f>
+        <v>0.66958157336864821</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>55.62</v>
+      </c>
+      <c r="C4">
+        <v>6.6</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-1.288763173765211</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>-1.4135610993338132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <f>AVERAGE(B2:B4)</f>
+        <v>103</v>
+      </c>
+      <c r="C5">
+        <f>AVERAGE(C2:C4)</f>
+        <v>17.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <f>_xlfn.STDEV.P(B2:B4)</f>
+        <v>36.763930693003935</v>
+      </c>
+      <c r="C6">
+        <f>_xlfn.STDEV.P(C2:C4)</f>
+        <v>7.3926765563405104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Region_Estimation.xlsx
+++ b/data/Region_Estimation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VSCode\MCM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51A019C-1BD4-40B3-869A-94D4D6B501E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7A5D15-7C0D-4078-9DA2-69AA52A81501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Region</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,10 @@
   </si>
   <si>
     <t>mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Population</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,15 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E20CF8-A988-48F2-A512-C7FCE20FC932}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,19 +450,22 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -466,19 +473,22 @@
         <v>1.2675004445952596</v>
       </c>
       <c r="C2">
+        <v>-0.26726124191242451</v>
+      </c>
+      <c r="D2">
         <v>1.3363062095621219</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-1.2247448713915889</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.92582009977255142</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1.2247448713915889</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -486,19 +496,22 @@
         <v>-9.0535746042518447E-2</v>
       </c>
       <c r="C3">
+        <v>1.3363062095621219</v>
+      </c>
+      <c r="D3">
         <v>-0.2672612419124244</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1.2247448713915889</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.46291004988627571</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -506,15 +519,18 @@
         <v>-1.1769646985527409</v>
       </c>
       <c r="C4">
+        <v>-1.0690449676496978</v>
+      </c>
+      <c r="D4">
         <v>-1.0690449676496976</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-1.3887301496588271</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-1.2247448713915889</v>
       </c>
     </row>
@@ -526,10 +542,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF810B02-0871-44DC-AFFB-80A73AF943CF}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="C9" sqref="C9:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -537,7 +553,7 @@
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,19 +561,22 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -565,19 +584,22 @@
         <v>10</v>
       </c>
       <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-10</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
       </c>
       <c r="F2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -585,19 +607,22 @@
         <v>5</v>
       </c>
       <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>8</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -605,10 +630,10 @@
         <v>1</v>
       </c>
       <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -616,8 +641,11 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -626,23 +654,27 @@
         <v>5.333333333333333</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:F6" si="0">AVERAGE(C2:C4)</f>
+        <f>AVERAGE(C2:C4)</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:G6" si="0">AVERAGE(D2:D4)</f>
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -651,23 +683,27 @@
         <v>3.6817870057290869</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:F7" si="1">_xlfn.STDEV.P(C2:C4)</f>
+        <f>_xlfn.STDEV.P(C2:C4)</f>
+        <v>1.247219128924647</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:G7" si="1">_xlfn.STDEV.P(D2:D4)</f>
         <v>3.7416573867739413</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f t="shared" si="1"/>
         <v>8.1649658092772608</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="1"/>
         <v>4.3204937989385739</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f t="shared" si="1"/>
         <v>4.0824829046386304</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -676,68 +712,80 @@
         <v>1.2675004445952596</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:F9" si="2">(C2-C$6)/C$7</f>
+        <f>(C2-C$6)/C$7</f>
+        <v>-0.26726124191242451</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:G9" si="2">(D2-D$6)/D$7</f>
         <v>1.3363062095621219</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f t="shared" si="2"/>
         <v>-1.2247448713915889</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="2"/>
         <v>0.92582009977255142</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f t="shared" si="2"/>
         <v>1.2247448713915889</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <f t="shared" ref="B10:F10" si="3">(B3-B$6)/B$7</f>
+        <f t="shared" ref="B10:G10" si="3">(B3-B$6)/B$7</f>
         <v>-9.0535746042518447E-2</v>
       </c>
       <c r="C10">
         <f t="shared" si="3"/>
-        <v>-0.2672612419124244</v>
+        <v>1.3363062095621219</v>
       </c>
       <c r="D10">
         <f t="shared" si="3"/>
-        <v>1.2247448713915889</v>
+        <v>-0.2672612419124244</v>
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>0.46291004988627571</v>
+        <v>1.2247448713915889</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
+        <v>0.46291004988627571</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" ref="B11:F11" si="4">(B4-B$6)/B$7</f>
+        <f t="shared" ref="B11:G11" si="4">(B4-B$6)/B$7</f>
         <v>-1.1769646985527409</v>
       </c>
       <c r="C11">
         <f t="shared" si="4"/>
-        <v>-1.0690449676496976</v>
+        <v>-1.0690449676496978</v>
       </c>
       <c r="D11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.0690449676496976</v>
       </c>
       <c r="E11">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
         <v>-1.3887301496588271</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <f t="shared" si="4"/>
         <v>-1.2247448713915889</v>
       </c>
